--- a/PipaMainframe/Scores PipaMainframe.xlsx
+++ b/PipaMainframe/Scores PipaMainframe.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p055453\Documents\Programas\Prodemge\Curso\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="84" yWindow="96" windowWidth="16656" windowHeight="7296"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>Modelo</t>
   </si>
@@ -42,12 +47,6 @@
     <t>Forecasting 12</t>
   </si>
   <si>
-    <t>ARIMA 13</t>
-  </si>
-  <si>
-    <t>ARIMA 14</t>
-  </si>
-  <si>
     <t>ARMA 15</t>
   </si>
   <si>
@@ -60,30 +59,6 @@
     <t>SARIMAX 18</t>
   </si>
   <si>
-    <t>LSTM 22</t>
-  </si>
-  <si>
-    <t>LSTM 23</t>
-  </si>
-  <si>
-    <t>LSTM 24</t>
-  </si>
-  <si>
-    <t>LSTM 25</t>
-  </si>
-  <si>
-    <t>DeepAR 26</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
-  </si>
-  <si>
-    <t>Stacked LSTM</t>
-  </si>
-  <si>
-    <t>LSTM Bidirecional</t>
-  </si>
-  <si>
     <t>LSTM e Time Steps</t>
   </si>
   <si>
@@ -123,15 +98,6 @@
     <t>Nº</t>
   </si>
   <si>
-    <t>ARIMA LOG (1, 1, 1)</t>
-  </si>
-  <si>
-    <t>LSTM (5 repetições)</t>
-  </si>
-  <si>
-    <t>LSTM Otimizado</t>
-  </si>
-  <si>
     <t>treino</t>
   </si>
   <si>
@@ -141,9 +107,6 @@
     <t>teste</t>
   </si>
   <si>
-    <t xml:space="preserve">LSTM Vanilla - 130 epochs </t>
-  </si>
-  <si>
     <t xml:space="preserve">LSTM e Stateful </t>
   </si>
   <si>
@@ -156,27 +119,15 @@
     <t xml:space="preserve">LSTM e Método Window </t>
   </si>
   <si>
-    <t>ARIMA LOG (1, 0, 1)</t>
-  </si>
-  <si>
-    <t>LSTM (3 repetições)</t>
-  </si>
-  <si>
     <t xml:space="preserve">RMSE </t>
   </si>
   <si>
     <t>RMSE = Raiz Quadrada do Erro Quadrático Médio</t>
   </si>
   <si>
-    <t>LSTM e Stacked - v0</t>
-  </si>
-  <si>
     <t>ARMA (4, 3)</t>
   </si>
   <si>
-    <t>ARIMA (0, 1, 1) Forecast</t>
-  </si>
-  <si>
     <t>ARIMA (0, 1, 1) Previsão</t>
   </si>
   <si>
@@ -253,17 +204,26 @@
   </si>
   <si>
     <t>model = Prophet(seasonality_mode='multiplicative', daily_seasonality=False, )</t>
+  </si>
+  <si>
+    <t>ARMA (1, 2)</t>
+  </si>
+  <si>
+    <t>ARIMA (15, 1, 7) Previsão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM e 130 epochs </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,7 +502,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,7 +520,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,9 +558,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,9 +592,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,9 +627,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,15 +803,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
@@ -859,29 +821,29 @@
     <col min="8" max="8" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.05" customHeight="1" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -890,21 +852,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -914,15 +876,17 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="12">
+        <v>79.103300000000004</v>
+      </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -932,14 +896,16 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="G4" s="9">
+        <v>76.281700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -949,1299 +915,1144 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="G5" s="9">
+        <v>82.485299999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="G6" s="9">
+        <v>81.864800000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="G7" s="9">
+        <v>78.910300000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9">
-        <v>82.606499999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>76.323800000000006</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9">
-        <v>76.631699999999995</v>
+        <v>74.987700000000004</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9">
-        <v>170.3655</v>
+        <v>67.058000000000007</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="8">
-        <v>68.724699999999999</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="9">
-        <v>83.304500000000004</v>
+      <c r="G11" s="15">
+        <v>8.6037999999999997</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="8">
-        <v>8.6037999999999997</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>62.3155</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9">
-        <v>101.1246</v>
+        <v>84.084199999999996</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9">
+        <v>53.305300000000003</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
+        <v>72.520700000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E14" s="9">
+        <v>48.716999999999999</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10">
+        <v>67.157799999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="8">
+        <v>62.865000000000002</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10">
+        <v>63.137700000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8">
+        <v>55.118400000000001</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10">
+        <v>65.883099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9">
+        <v>53.469700000000003</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10">
+        <v>66.2286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2.1089000000000002</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>78.069199999999995</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E19" s="9">
+        <v>48.716999999999999</v>
+      </c>
+      <c r="F19" s="9">
+        <v>67.157799999999995</v>
+      </c>
+      <c r="G19" s="10">
+        <v>85.399199999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="8">
+        <v>62.865000000000002</v>
+      </c>
+      <c r="F20" s="8">
+        <v>63.137700000000002</v>
+      </c>
+      <c r="G20" s="10">
+        <v>80.0989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="9">
-        <v>62.269399999999997</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9">
-        <v>83.941400000000002</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="9">
-        <v>53.896999999999998</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9">
-        <v>77.530600000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="8">
-        <v>58.721600000000002</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="15">
-        <v>63.935200000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>55.322899999999997</v>
+      </c>
+      <c r="F21" s="9">
+        <v>65.743099999999998</v>
+      </c>
+      <c r="G21" s="10">
+        <v>82.149799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="9">
+        <v>53.4497</v>
+      </c>
+      <c r="F22" s="8">
+        <v>66.2286</v>
+      </c>
+      <c r="G22" s="10">
+        <v>83.347099999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.1089000000000002</v>
+      </c>
+      <c r="F23" s="9">
+        <v>78.069199999999995</v>
+      </c>
+      <c r="G23" s="9">
+        <v>97.578900000000004</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="16">
+        <v>25.6</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16">
+        <v>50.49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="16">
+        <v>11.29</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="8">
-        <v>58.721600000000002</v>
-      </c>
-      <c r="F22" s="8">
-        <v>63.935200000000002</v>
-      </c>
-      <c r="G22" s="10">
-        <v>79.426299999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E35" s="16">
+        <v>21.14</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16">
+        <v>49.45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="8">
-        <v>46.763800000000003</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="15">
-        <v>71.983999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8">
-        <v>46.763800000000003</v>
-      </c>
-      <c r="F24" s="9">
-        <v>71.983999999999995</v>
-      </c>
-      <c r="G24" s="9">
-        <v>86.689400000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="8">
-        <v>55.118400000000001</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="15">
-        <v>65.883099999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="8">
-        <v>55.118400000000001</v>
-      </c>
-      <c r="F26" s="9">
-        <v>65.883099999999999</v>
-      </c>
-      <c r="G26" s="9">
-        <v>82.136200000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="16">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16">
+        <v>70.489999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="9">
-        <v>56.926299999999998</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="15">
-        <v>66.907499999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="9">
-        <v>56.926299999999998</v>
-      </c>
-      <c r="F28" s="8">
-        <v>66.907499999999999</v>
-      </c>
-      <c r="G28" s="9">
-        <v>80.697199999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="16">
+        <v>20.39</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16">
+        <v>96.05</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="I38" s="16">
+        <v>58.51</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16">
+        <v>83.02</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="8">
-        <v>58.780500000000004</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="15">
-        <v>71.402000000000001</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="8">
-        <v>6.53</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
-        <v>68.639200000000002</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
-        <v>25</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="8">
-        <v>6.53</v>
-      </c>
-      <c r="F31" s="9">
-        <v>68.639200000000002</v>
-      </c>
-      <c r="G31" s="9">
-        <v>104.1859</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="2:14" ht="15.6">
-      <c r="B33" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="18">
-      <c r="B34" s="11" t="s">
+      <c r="G40" s="16"/>
+      <c r="I40" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="J40" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="K40" s="16"/>
+      <c r="N40" s="17">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
       </c>
       <c r="E41" s="16">
-        <v>25.6</v>
+        <v>58.38</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16">
-        <v>50.49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14">
+        <v>84.31</v>
+      </c>
+      <c r="I41" s="16">
+        <v>61.1</v>
+      </c>
+      <c r="K41" s="16">
+        <v>80.989999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E42" s="16">
-        <v>11.29</v>
+        <v>56.38</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14">
+        <v>81.680000000000007</v>
+      </c>
+      <c r="I42" s="16">
+        <v>56.86</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E43" s="16">
-        <v>21.14</v>
+        <v>49.93</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
-        <v>49.45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14">
+        <v>88.3</v>
+      </c>
+      <c r="I43" s="16">
+        <v>45.25</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16">
+        <v>94.05</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16">
-        <v>20.239999999999998</v>
+        <v>45.25</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
-        <v>70.489999999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14">
+        <v>94.05</v>
+      </c>
+      <c r="I44" s="16">
+        <v>22.26</v>
+      </c>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16">
+        <v>127.68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E45" s="16">
-        <v>20.39</v>
+        <v>33.14</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
-        <v>96.05</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+        <v>102.61</v>
+      </c>
+      <c r="I45" s="16">
+        <v>5.78</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16">
+        <v>111.92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="16">
+        <v>58.63</v>
+      </c>
+      <c r="G46" s="16">
+        <v>81.569999999999993</v>
+      </c>
       <c r="I46" s="16">
-        <v>58.51</v>
-      </c>
-      <c r="J46" s="16"/>
+        <v>61.84</v>
+      </c>
       <c r="K46" s="16">
-        <v>83.02</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14">
+        <v>76.72</v>
+      </c>
+      <c r="N46" s="16">
+        <v>58.77</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
       <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
       <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="I47" s="16">
+        <v>60.54</v>
+      </c>
+      <c r="K47" s="16">
+        <v>79.63</v>
+      </c>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>68</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="I48" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K48" s="16"/>
-      <c r="N48" s="17">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16">
+      <c r="I48" s="16">
+        <v>55.01</v>
+      </c>
+      <c r="K48" s="16">
+        <v>86.01</v>
+      </c>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E49" s="16">
-        <v>58.38</v>
-      </c>
-      <c r="F49" s="16"/>
+        <v>57.32</v>
+      </c>
       <c r="G49" s="16">
-        <v>84.31</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="I49" s="16">
-        <v>61.1</v>
+        <v>49.27</v>
       </c>
       <c r="K49" s="16">
-        <v>80.989999999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16">
+        <v>88.2</v>
+      </c>
+      <c r="N49" s="16">
+        <v>57.33</v>
+      </c>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16">
+        <v>82.11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E50" s="16">
-        <v>56.38</v>
-      </c>
-      <c r="F50" s="16"/>
+        <v>55.91</v>
+      </c>
       <c r="G50" s="16">
-        <v>81.680000000000007</v>
+        <v>77.52</v>
       </c>
       <c r="I50" s="16">
-        <v>56.86</v>
-      </c>
-      <c r="J50" s="16"/>
+        <v>47.64</v>
+      </c>
       <c r="K50" s="16">
-        <v>84.14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16">
+        <v>91.86</v>
+      </c>
+      <c r="N50" s="16">
+        <v>56.09</v>
+      </c>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16">
+        <v>82.22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E51" s="16">
-        <v>49.93</v>
-      </c>
-      <c r="F51" s="16"/>
+        <v>57.17</v>
+      </c>
       <c r="G51" s="16">
-        <v>88.3</v>
-      </c>
-      <c r="I51" s="16">
-        <v>45.25</v>
-      </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16">
-        <v>94.05</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16">
+        <v>85.61</v>
+      </c>
+      <c r="N51" s="16">
+        <v>58.96</v>
+      </c>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16">
+        <v>87.32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E52" s="16">
-        <v>45.25</v>
-      </c>
-      <c r="F52" s="16"/>
+        <v>58.55</v>
+      </c>
       <c r="G52" s="16">
-        <v>94.05</v>
-      </c>
-      <c r="I52" s="16">
-        <v>22.26</v>
-      </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16">
-        <v>127.68</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16">
+        <v>75.89</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="N52" s="16">
+        <v>60.95</v>
+      </c>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16">
+        <v>81.38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E53" s="16">
-        <v>33.14</v>
-      </c>
-      <c r="F53" s="16"/>
+        <v>58.73</v>
+      </c>
       <c r="G53" s="16">
-        <v>102.61</v>
+        <v>79.2</v>
       </c>
       <c r="I53" s="16">
-        <v>5.78</v>
-      </c>
-      <c r="J53" s="16"/>
+        <v>61.18</v>
+      </c>
       <c r="K53" s="16">
-        <v>111.92</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16">
+        <v>129.04</v>
+      </c>
+      <c r="N53" s="16">
+        <v>58.79</v>
+      </c>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16">
+        <v>76.69</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="16">
-        <v>58.63</v>
-      </c>
-      <c r="G54" s="16">
-        <v>81.569999999999993</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="G54" s="16"/>
       <c r="I54" s="16">
-        <v>61.84</v>
+        <v>59.67</v>
       </c>
       <c r="K54" s="16">
-        <v>76.72</v>
-      </c>
-      <c r="N54" s="16">
-        <v>58.77</v>
-      </c>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="N54" s="16"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="16">
-        <v>80.900000000000006</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16">
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E55" s="16"/>
       <c r="G55" s="16"/>
       <c r="I55" s="16">
-        <v>60.54</v>
+        <v>61.81</v>
       </c>
       <c r="K55" s="16">
-        <v>79.63</v>
+        <v>78.91</v>
       </c>
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="G56" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="E56" s="16">
+        <v>58.06</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>75.73</v>
+      </c>
       <c r="I56" s="16">
-        <v>55.01</v>
-      </c>
+        <v>57.03</v>
+      </c>
+      <c r="J56" s="16"/>
       <c r="K56" s="16">
-        <v>86.01</v>
-      </c>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-    </row>
-    <row r="57" spans="2:16">
+        <v>78.34</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E57" s="16">
-        <v>57.32</v>
-      </c>
+        <v>57.96</v>
+      </c>
+      <c r="F57" s="16"/>
       <c r="G57" s="16">
-        <v>81.010000000000005</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="I57" s="16">
-        <v>49.27</v>
-      </c>
+        <v>45.85</v>
+      </c>
+      <c r="J57" s="16"/>
       <c r="K57" s="16">
-        <v>88.2</v>
-      </c>
-      <c r="N57" s="16">
-        <v>57.33</v>
-      </c>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16">
-        <v>82.11</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16">
+        <v>97.67</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E58" s="16">
-        <v>55.91</v>
-      </c>
+        <v>56.7</v>
+      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="16">
-        <v>77.52</v>
+        <v>72.08</v>
       </c>
       <c r="I58" s="16">
-        <v>47.64</v>
-      </c>
+        <v>51.29</v>
+      </c>
+      <c r="J58" s="16"/>
       <c r="K58" s="16">
-        <v>91.86</v>
-      </c>
-      <c r="N58" s="16">
-        <v>56.09</v>
-      </c>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16">
-        <v>82.22</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E59" s="16">
-        <v>57.17</v>
-      </c>
+        <v>60.41</v>
+      </c>
+      <c r="F59" s="16"/>
       <c r="G59" s="16">
-        <v>85.61</v>
-      </c>
-      <c r="N59" s="16">
-        <v>58.96</v>
-      </c>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16">
-        <v>87.32</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16">
+        <v>76.73</v>
+      </c>
+      <c r="I59" s="16">
+        <v>54.28</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16">
+        <v>98.63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E60" s="16">
-        <v>58.55</v>
-      </c>
+        <v>58.91</v>
+      </c>
+      <c r="F60" s="16"/>
       <c r="G60" s="16">
-        <v>75.89</v>
-      </c>
-      <c r="I60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="N60" s="16">
-        <v>60.95</v>
-      </c>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16">
-        <v>81.38</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16">
+        <v>82.51</v>
+      </c>
+      <c r="I60" s="16">
+        <v>54.08</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16">
+        <v>105.55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="16">
-        <v>58.73</v>
-      </c>
-      <c r="G61" s="16">
-        <v>79.2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
       <c r="I61" s="16">
-        <v>61.18</v>
-      </c>
+        <v>55.4</v>
+      </c>
+      <c r="J61" s="16"/>
       <c r="K61" s="16">
-        <v>129.04</v>
-      </c>
-      <c r="N61" s="16">
-        <v>58.79</v>
-      </c>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16">
-        <v>76.69</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16">
+        <v>87.72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="I62" s="16">
-        <v>59.67</v>
-      </c>
+        <v>38.44</v>
+      </c>
+      <c r="J62" s="16"/>
       <c r="K62" s="16">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-    </row>
-    <row r="63" spans="2:16">
+        <v>94.31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="G63" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="E63" s="16">
+        <v>55.7</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16">
+        <v>79.790000000000006</v>
+      </c>
       <c r="I63" s="16">
-        <v>61.81</v>
-      </c>
+        <v>41.58</v>
+      </c>
+      <c r="J63" s="16"/>
       <c r="K63" s="16">
-        <v>78.91</v>
-      </c>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-    </row>
-    <row r="64" spans="2:16">
+        <v>82.01</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E64" s="16">
-        <v>58.06</v>
+        <v>56.29</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16">
-        <v>75.73</v>
+        <v>82.54</v>
       </c>
       <c r="I64" s="16">
-        <v>57.03</v>
+        <v>34.28</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16">
-        <v>78.34</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
+        <v>88.37</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E65" s="16">
-        <v>57.96</v>
+        <v>55.81</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16">
-        <v>74.930000000000007</v>
+        <v>83.85</v>
       </c>
       <c r="I65" s="16">
-        <v>45.85</v>
+        <v>44.63</v>
       </c>
       <c r="J65" s="16"/>
       <c r="K65" s="16">
-        <v>97.67</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
+        <v>113.76</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E66" s="16">
-        <v>56.7</v>
+        <v>56.03</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
-        <v>72.08</v>
+        <v>79.33</v>
       </c>
       <c r="I66" s="16">
-        <v>51.29</v>
+        <v>35.67</v>
       </c>
       <c r="J66" s="16"/>
       <c r="K66" s="16">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="16">
-        <v>60.41</v>
-      </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16">
-        <v>76.73</v>
-      </c>
-      <c r="I67" s="16">
-        <v>54.28</v>
-      </c>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16">
-        <v>98.63</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" t="s">
+        <v>114.12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="16">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>56</v>
       </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="16">
-        <v>58.91</v>
-      </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16">
-        <v>82.51</v>
-      </c>
-      <c r="I68" s="16">
-        <v>54.08</v>
-      </c>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16">
-        <v>105.55</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="I69" s="16">
-        <v>55.4</v>
-      </c>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16">
-        <v>87.72</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="I70" s="16">
-        <v>38.44</v>
-      </c>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16">
-        <v>94.31</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" t="s">
+      <c r="G72" s="16">
+        <v>91.69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>60</v>
       </c>
-      <c r="C71" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="16">
-        <v>55.7</v>
-      </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16">
-        <v>79.790000000000006</v>
-      </c>
-      <c r="I71" s="16">
-        <v>41.58</v>
-      </c>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16">
-        <v>82.01</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="16">
-        <v>56.29</v>
-      </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16">
-        <v>82.54</v>
-      </c>
-      <c r="I72" s="16">
-        <v>34.28</v>
-      </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16">
-        <v>88.37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="16">
-        <v>55.81</v>
-      </c>
-      <c r="F73" s="16"/>
       <c r="G73" s="16">
-        <v>83.85</v>
-      </c>
-      <c r="I73" s="16">
-        <v>44.63</v>
-      </c>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16">
-        <v>113.76</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E74" s="16">
-        <v>56.03</v>
-      </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16">
-        <v>79.33</v>
-      </c>
-      <c r="I74" s="16">
-        <v>35.67</v>
-      </c>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16">
-        <v>114.12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G79" s="16">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" s="16">
-        <v>91.69</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" s="16">
         <v>91.34</v>
       </c>
     </row>
@@ -2255,24 +2066,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PipaMainframe/Scores PipaMainframe.xlsx
+++ b/PipaMainframe/Scores PipaMainframe.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p055453\Documents\Programas\Prodemge\Curso\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="84" yWindow="96" windowWidth="16656" windowHeight="7296"/>
   </bookViews>
@@ -218,12 +213,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,7 +497,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,7 +515,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -558,9 +553,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,10 +587,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,10 +621,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -811,7 +804,7 @@
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
@@ -821,7 +814,7 @@
     <col min="8" max="8" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
@@ -838,7 +831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="16.05" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -861,7 +854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -881,7 +874,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -900,7 +893,7 @@
         <v>76.281700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -919,7 +912,7 @@
         <v>82.485299999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -938,7 +931,7 @@
         <v>81.864800000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -957,7 +950,7 @@
         <v>78.910300000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -980,7 +973,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1003,7 +996,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1024,7 +1017,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1046,7 +1039,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1070,7 +1063,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1091,7 +1084,7 @@
         <v>72.520700000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1112,7 +1105,7 @@
         <v>67.157799999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1133,7 +1126,7 @@
         <v>63.137700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1154,7 +1147,7 @@
         <v>65.883099999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1175,7 +1168,7 @@
         <v>66.2286</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1199,7 +1192,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1222,7 +1215,7 @@
         <v>85.399199999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1245,7 +1238,7 @@
         <v>80.0989</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1268,7 +1261,7 @@
         <v>82.149799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1291,7 +1284,7 @@
         <v>83.347099999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1317,7 +1310,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -1329,17 +1322,17 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.6">
       <c r="B25" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="18">
       <c r="B26" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -1351,7 +1344,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16">
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -1366,7 +1359,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16">
       <c r="B35" t="s">
         <v>42</v>
       </c>
@@ -1381,7 +1374,7 @@
         <v>49.45</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16">
       <c r="B36" t="s">
         <v>45</v>
       </c>
@@ -1396,7 +1389,7 @@
         <v>70.489999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16">
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -1411,7 +1404,7 @@
         <v>96.05</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16">
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -1423,12 +1416,12 @@
         <v>83.02</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16">
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16">
       <c r="B40" t="s">
         <v>46</v>
       </c>
@@ -1450,7 +1443,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1471,7 +1464,7 @@
         <v>80.989999999999995</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16">
       <c r="B42" t="s">
         <v>42</v>
       </c>
@@ -1493,7 +1486,7 @@
         <v>84.14</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16">
       <c r="B43" t="s">
         <v>39</v>
       </c>
@@ -1515,7 +1508,7 @@
         <v>94.05</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1530,7 @@
         <v>127.68</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -1559,7 +1552,7 @@
         <v>111.92</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16">
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -1586,7 +1579,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16">
       <c r="B47" t="s">
         <v>51</v>
       </c>
@@ -1605,7 +1598,7 @@
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16">
       <c r="B48" t="s">
         <v>52</v>
       </c>
@@ -1624,7 +1617,7 @@
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16">
       <c r="B49" t="s">
         <v>42</v>
       </c>
@@ -1651,7 +1644,7 @@
         <v>82.11</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16">
       <c r="B50" t="s">
         <v>39</v>
       </c>
@@ -1678,7 +1671,7 @@
         <v>82.22</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16">
       <c r="B51" t="s">
         <v>47</v>
       </c>
@@ -1699,7 +1692,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16">
       <c r="B52" t="s">
         <v>48</v>
       </c>
@@ -1722,7 +1715,7 @@
         <v>81.38</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16">
       <c r="B53" t="s">
         <v>38</v>
       </c>
@@ -1749,7 +1742,7 @@
         <v>76.69</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16">
       <c r="B54" t="s">
         <v>51</v>
       </c>
@@ -1768,7 +1761,7 @@
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -1787,7 +1780,7 @@
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16">
       <c r="B56" t="s">
         <v>42</v>
       </c>
@@ -1809,7 +1802,7 @@
         <v>78.34</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16">
       <c r="B57" t="s">
         <v>39</v>
       </c>
@@ -1831,7 +1824,7 @@
         <v>97.67</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16">
       <c r="B58" t="s">
         <v>47</v>
       </c>
@@ -1853,7 +1846,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16">
       <c r="B59" t="s">
         <v>48</v>
       </c>
@@ -1875,7 +1868,7 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16">
       <c r="B60" t="s">
         <v>38</v>
       </c>
@@ -1897,7 +1890,7 @@
         <v>105.55</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16">
       <c r="B61" t="s">
         <v>51</v>
       </c>
@@ -1915,7 +1908,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16">
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -1933,7 +1926,7 @@
         <v>94.31</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16">
       <c r="B63" t="s">
         <v>42</v>
       </c>
@@ -1955,7 +1948,7 @@
         <v>82.01</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16">
       <c r="B64" t="s">
         <v>39</v>
       </c>
@@ -1977,7 +1970,7 @@
         <v>88.37</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11">
       <c r="B65" t="s">
         <v>47</v>
       </c>
@@ -1999,7 +1992,7 @@
         <v>113.76</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11">
       <c r="B66" t="s">
         <v>48</v>
       </c>
@@ -2021,7 +2014,7 @@
         <v>114.12</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11">
       <c r="B70" t="s">
         <v>55</v>
       </c>
@@ -2032,7 +2025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11">
       <c r="B71" t="s">
         <v>57</v>
       </c>
@@ -2040,7 +2033,7 @@
         <v>88.6</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11">
       <c r="B72" t="s">
         <v>56</v>
       </c>
@@ -2048,7 +2041,7 @@
         <v>91.69</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11">
       <c r="B73" t="s">
         <v>60</v>
       </c>
@@ -2066,24 +2059,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PipaMainframe/Scores PipaMainframe.xlsx
+++ b/PipaMainframe/Scores PipaMainframe.xlsx
@@ -801,7 +801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -870,7 +870,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="12">
-        <v>79.103300000000004</v>
+        <v>77.796700000000001</v>
       </c>
       <c r="I3" s="13"/>
     </row>
